--- a/RPA - Curriculam.xlsx
+++ b/RPA - Curriculam.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FC9015-59CC-4BD3-A060-55FD19FB31D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCA88CC-2CD1-4E35-A801-0FE8CC485D32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Course" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t xml:space="preserve">Contents </t>
   </si>
@@ -685,6 +685,12 @@
   </si>
   <si>
     <t xml:space="preserve">6.7 Practical </t>
+  </si>
+  <si>
+    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/aae-developer/aae-bot-store-introduction.html?_ga=2.120191496.1891301164.1572702755-450431597.1564232550</t>
+  </si>
+  <si>
+    <t>Standard Checklist for Submission</t>
   </si>
 </sst>
 </file>
@@ -778,7 +784,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -801,12 +807,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,6 +877,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1144,7 +1162,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2121,10 +2139,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FDDD4E-884C-44A5-A453-55E4DFAA5C5E}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,6 +2250,17 @@
         <v>91</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{053DEA77-4387-4D37-9BC8-56730D6013EA}"/>
@@ -2239,9 +2268,10 @@
     <hyperlink ref="C6" r:id="rId3" xr:uid="{ADB0DF53-053B-439B-9F90-B35D2E737402}"/>
     <hyperlink ref="C8" r:id="rId4" xr:uid="{D62601E4-D810-4435-861A-E2B2E8D4A0A5}"/>
     <hyperlink ref="C9" r:id="rId5" xr:uid="{6B604487-42B1-4D6F-9F15-3D79DC46D5EA}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{618847EF-CC79-48E8-B205-28C0DB16E6DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/RPA - Curriculam.xlsx
+++ b/RPA - Curriculam.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCA88CC-2CD1-4E35-A801-0FE8CC485D32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1346C7-8ADA-489C-9C4E-04537E61BD81}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Course" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="109">
   <si>
     <t xml:space="preserve">Contents </t>
   </si>
@@ -454,7 +454,7 @@
   </si>
   <si>
     <r>
-      <t>10.4</t>
+      <t>11.</t>
     </r>
     <r>
       <rPr>
@@ -467,18 +467,30 @@
     </r>
     <r>
       <rPr>
-        <sz val="11.5"/>
+        <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Practical</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>11.</t>
+      <t>Understanding MetaBots &amp; Creating a C# integration (DLL)</t>
+    </r>
+  </si>
+  <si>
+    <t>10.1 Understanding Metabots (Pre-requisite Visual Studio IDE)</t>
+  </si>
+  <si>
+    <t>10.2 Difference between Metabots and Taskbots</t>
+  </si>
+  <si>
+    <t>10.3 Features of Metabots</t>
+  </si>
+  <si>
+    <t>10.4 Practical</t>
+  </si>
+  <si>
+    <r>
+      <t>12.</t>
     </r>
     <r>
       <rPr>
@@ -497,24 +509,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Understanding MetaBots &amp; Creating a C# integration (DLL)</t>
-    </r>
-  </si>
-  <si>
-    <t>10.1 Understanding Metabots (Pre-requisite Visual Studio IDE)</t>
-  </si>
-  <si>
-    <t>10.2 Difference between Metabots and Taskbots</t>
-  </si>
-  <si>
-    <t>10.3 Features of Metabots</t>
-  </si>
-  <si>
-    <t>10.4 Practical</t>
-  </si>
-  <si>
-    <r>
-      <t>12.</t>
+      <t>Real Time Use Cases Project</t>
+    </r>
+  </si>
+  <si>
+    <t>A real-time short-term project requirement would be shared. The idea would be to have a discussion on the optimized approach and start the end of end development for it.</t>
+  </si>
+  <si>
+    <r>
+      <t>13.</t>
     </r>
     <r>
       <rPr>
@@ -533,164 +536,182 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Real Time Use Cases Project</t>
-    </r>
-  </si>
-  <si>
-    <t>A real-time short-term project requirement would be shared. The idea would be to have a discussion on the optimized approach and start the end of end development for it.</t>
-  </si>
-  <si>
-    <r>
-      <t>13.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
+      <t>Automation Anywhere Interview Questions &amp; Mock test</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1 AA Interview Questions &amp; Pattern </t>
+  </si>
+  <si>
+    <t>12.2 AA Practical &amp; Lab Exercises</t>
+  </si>
+  <si>
+    <t>12.3 AA Mock Test</t>
+  </si>
+  <si>
+    <t>Covered On Date</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>4.0 Getting Started with AA Template</t>
+  </si>
+  <si>
+    <t>Botstore</t>
+  </si>
+  <si>
+    <t>Apeople</t>
+  </si>
+  <si>
+    <t>Documentation Portal</t>
+  </si>
+  <si>
+    <t>botstore.automationanywhere.com</t>
+  </si>
+  <si>
+    <t>docs.automationanywhere.com</t>
+  </si>
+  <si>
+    <t>apeople.automationanywhere.com</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Useful Bookmarks</t>
+  </si>
+  <si>
+    <t>Sl no.</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Automation Anywhere Interview Questions &amp; Mock test</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1 AA Interview Questions &amp; Pattern </t>
-  </si>
-  <si>
-    <t>12.2 AA Practical &amp; Lab Exercises</t>
-  </si>
-  <si>
-    <t>12.3 AA Mock Test</t>
-  </si>
-  <si>
-    <t>Covered On Date</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
-    <t>4.0 Getting Started with AA Template</t>
-  </si>
-  <si>
-    <t>Botstore</t>
-  </si>
-  <si>
-    <t>Apeople</t>
-  </si>
-  <si>
-    <t>Documentation Portal</t>
-  </si>
-  <si>
-    <t>botstore.automationanywhere.com</t>
-  </si>
-  <si>
-    <t>docs.automationanywhere.com</t>
-  </si>
-  <si>
-    <t>apeople.automationanywhere.com</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>Useful Bookmarks</t>
-  </si>
-  <si>
-    <t>Sl no.</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t>Introduction to Automation Anywhere &amp; RPA</t>
+    </r>
+  </si>
+  <si>
+    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/control-room/administration/roles/system-created-roles.html</t>
+  </si>
+  <si>
+    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/control-room/administration/licenses/license-overview.html</t>
+  </si>
+  <si>
+    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/control-room/install/installation.html</t>
+  </si>
+  <si>
+    <t>Installing Enterprise Control Room</t>
+  </si>
+  <si>
+    <t>CR Roles 11.x</t>
+  </si>
+  <si>
+    <t>CR Licenses 11.x</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/aae-developer/aae-using-boiler-plate-template.html</t>
+  </si>
+  <si>
+    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/aae-client/bot-creator/creating-an-automation-task/best-practices-running-tasks.html</t>
+  </si>
+  <si>
+    <t>Best Practises</t>
+  </si>
+  <si>
+    <t>Using Boilerplate</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3 If/Else conditions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4 Email Automations </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5 Logging </t>
+  </si>
+  <si>
+    <t>6.6 Log viewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7 Practical </t>
+  </si>
+  <si>
+    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/aae-developer/aae-bot-store-introduction.html?_ga=2.120191496.1891301164.1572702755-450431597.1564232550</t>
+  </si>
+  <si>
+    <t>Standard Checklist for Submission</t>
+  </si>
+  <si>
+    <t>DAY 2-3</t>
+  </si>
+  <si>
+    <t>DAY 1</t>
+  </si>
+  <si>
+    <t>DAY 3-4</t>
+  </si>
+  <si>
+    <t>DAY 4-5</t>
+  </si>
+  <si>
+    <t>DAY 5-6</t>
+  </si>
+  <si>
+    <r>
+      <t>10.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Introduction to Automation Anywhere &amp; RPA</t>
-    </r>
-  </si>
-  <si>
-    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/control-room/administration/roles/system-created-roles.html</t>
-  </si>
-  <si>
-    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/control-room/administration/licenses/license-overview.html</t>
-  </si>
-  <si>
-    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/control-room/install/installation.html</t>
-  </si>
-  <si>
-    <t>Installing Enterprise Control Room</t>
-  </si>
-  <si>
-    <t>CR Roles 11.x</t>
-  </si>
-  <si>
-    <t>CR Licenses 11.x</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/aae-developer/aae-using-boiler-plate-template.html</t>
-  </si>
-  <si>
-    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/aae-client/bot-creator/creating-an-automation-task/best-practices-running-tasks.html</t>
-  </si>
-  <si>
-    <t>Best Practises</t>
-  </si>
-  <si>
-    <t>Using Boilerplate</t>
-  </si>
-  <si>
-    <t>Answers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.3 If/Else conditions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.4 Email Automations </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5 Logging </t>
-  </si>
-  <si>
-    <t>6.6 Log viewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7 Practical </t>
-  </si>
-  <si>
-    <t>https://docs.automationanywhere.com/bundle/enterprise-v11.3/page/enterprise/topics/aae-developer/aae-bot-store-introduction.html?_ga=2.120191496.1891301164.1572702755-450431597.1564232550</t>
-  </si>
-  <si>
-    <t>Standard Checklist for Submission</t>
+      <t>Practical RPA+IQ BOT INTEGRATION</t>
+    </r>
+  </si>
+  <si>
+    <t>DAY 6-7</t>
+  </si>
+  <si>
+    <t>DAY 7-8</t>
   </si>
 </sst>
 </file>
@@ -784,7 +805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -818,12 +839,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -873,11 +931,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1160,10 +1223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,963 +1236,861 @@
     <col min="3" max="3" width="56.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="19"/>
+      <c r="B54" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="B56" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="B57" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="B58" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B74" s="4"/>
+      <c r="B74" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B75" s="4"/>
+      <c r="B75" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="4"/>
+      <c r="B76" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="4"/>
+      <c r="B77" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-    </row>
-    <row r="81" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-    </row>
-    <row r="82" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B85" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B90" s="4"/>
+      <c r="B90" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="4"/>
+      <c r="B91" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B93" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-    </row>
-    <row r="96" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
+      <c r="B99" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
+      <c r="B100" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101" s="4"/>
+      <c r="B101" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B106" s="20"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="20"/>
-      <c r="E106" s="20"/>
-    </row>
-    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="20"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="20"/>
-      <c r="E107" s="20"/>
-    </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="20"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="8"/>
+    </row>
+    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="21"/>
+      <c r="B107" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="8"/>
+    </row>
+    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="22"/>
+      <c r="B108" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="8"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A110" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:5" ht="21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="B113" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B114" s="8"/>
+      <c r="B114" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A106:E108"/>
+    <mergeCell ref="A106:A108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2141,7 +2102,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -2153,13 +2114,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2178,10 +2139,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2189,10 +2150,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2200,10 +2161,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2211,10 +2172,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2222,10 +2183,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2233,10 +2194,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2244,10 +2205,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2255,10 +2216,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="21" t="s">
         <v>100</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2292,16 +2253,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>89</v>
-      </c>
       <c r="D1" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
